--- a/web/uploadedFiles/Transaction.xlsx
+++ b/web/uploadedFiles/Transaction.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="87">
   <si>
     <t>Name Fund</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>abasc</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>ấ</t>
   </si>
 </sst>
 </file>
@@ -311,7 +317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B1:L51"/>
+  <dimension ref="B1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1873,6 +1879,62 @@
       </c>
       <c r="K51"/>
     </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.1111111E7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52"/>
+      <c r="G52" t="n">
+        <v>45834.0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>80</v>
+      </c>
+      <c r="K52"/>
+    </row>
+    <row r="53">
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.8244121E7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>86</v>
+      </c>
+      <c r="F53"/>
+      <c r="G53" t="n">
+        <v>45834.0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+      <c r="K53"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/web/uploadedFiles/Transaction.xlsx
+++ b/web/uploadedFiles/Transaction.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="91">
   <si>
     <t>Name Fund</t>
   </si>
@@ -200,15 +200,6 @@
     <t>Lương + hoa hồng cao</t>
   </si>
   <si>
-    <t>Tiền điện tháng 4</t>
-  </si>
-  <si>
-    <t>Tiền nước tháng 4</t>
-  </si>
-  <si>
-    <t>Lương nhân viên tháng 4</t>
-  </si>
-  <si>
     <t>Phí bảo trì máy tính tiền</t>
   </si>
   <si>
@@ -248,31 +239,52 @@
     <t>Nhận tiền từ Vietcombank</t>
   </si>
   <si>
+    <t>Thu tiền mặt từ hóa đơn 9</t>
+  </si>
+  <si>
+    <t>Thu tiền mặt từ hóa đơn 10</t>
+  </si>
+  <si>
+    <t>Thu tiền mặt từ hóa đơn 11</t>
+  </si>
+  <si>
+    <t>Thu tiền mặt từ hóa đơn 12</t>
+  </si>
+  <si>
     <t>Thu tiền mặt từ hóa đơn 13</t>
   </si>
   <si>
-    <t>Vốn tự thân</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>111111</t>
-  </si>
-  <si>
-    <t>aaaa</t>
-  </si>
-  <si>
-    <t>aaaaaa</t>
-  </si>
-  <si>
-    <t>abasc</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>ấ</t>
+    <t>Thu tiền mặt từ hóa đơn 14</t>
+  </si>
+  <si>
+    <t>Thu tiền mặt từ hóa đơn 15</t>
+  </si>
+  <si>
+    <t>Thu tiền mặt từ hóa đơn 16</t>
+  </si>
+  <si>
+    <t>Thu tiền mặt từ hóa đơn 17</t>
+  </si>
+  <si>
+    <t>Thu tiền mặt từ hóa đơn 18</t>
+  </si>
+  <si>
+    <t>Thu tiền mặt từ hóa đơn 19</t>
+  </si>
+  <si>
+    <t>Thu tiền mặt từ hóa đơn 20</t>
+  </si>
+  <si>
+    <t>Thu tiền mặt từ hóa đơn 21</t>
+  </si>
+  <si>
+    <t>Thu tiền mặt từ hóa đơn 1021</t>
+  </si>
+  <si>
+    <t>Thu tiền mặt từ hóa đơn 1022</t>
+  </si>
+  <si>
+    <t>Thu tiền mặt từ hóa đơn 1023</t>
   </si>
 </sst>
 </file>
@@ -317,7 +329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B1:L53"/>
+  <dimension ref="B1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1042,22 +1054,20 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
-        <v>693000.0</v>
+        <v>500000.0</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" t="s">
-        <v>49</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F24"/>
       <c r="G24" t="n">
-        <v>45748.0</v>
+        <v>45716.0</v>
       </c>
       <c r="H24" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -1066,30 +1076,28 @@
         <v>13</v>
       </c>
       <c r="K24" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D25" t="n">
-        <v>1485000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" t="s">
-        <v>49</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F25"/>
       <c r="G25" t="n">
-        <v>45752.0</v>
+        <v>45716.0</v>
       </c>
       <c r="H25" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -1098,7 +1106,7 @@
         <v>13</v>
       </c>
       <c r="K25" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
@@ -1106,22 +1114,20 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D26" t="n">
-        <v>308000.0</v>
+        <v>2200000.0</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" t="s">
-        <v>49</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="F26"/>
       <c r="G26" t="n">
-        <v>45757.0</v>
+        <v>45716.0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
@@ -1130,30 +1136,28 @@
         <v>13</v>
       </c>
       <c r="K26" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D27" t="n">
-        <v>1045000.0</v>
+        <v>520000.0</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" t="s">
-        <v>49</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F27"/>
       <c r="G27" t="n">
-        <v>45762.0</v>
+        <v>45747.0</v>
       </c>
       <c r="H27" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I27" t="n">
         <v>0.0</v>
@@ -1162,7 +1166,7 @@
         <v>13</v>
       </c>
       <c r="K27" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28">
@@ -1173,14 +1177,14 @@
         <v>34</v>
       </c>
       <c r="D28" t="n">
-        <v>500000.0</v>
+        <v>320000.0</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>45716.0</v>
+        <v>45747.0</v>
       </c>
       <c r="H28" t="n">
         <v>1.0</v>
@@ -1192,7 +1196,7 @@
         <v>13</v>
       </c>
       <c r="K28" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1203,14 +1207,14 @@
         <v>34</v>
       </c>
       <c r="D29" t="n">
-        <v>300000.0</v>
+        <v>2500000.0</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>45716.0</v>
+        <v>45747.0</v>
       </c>
       <c r="H29" t="n">
         <v>1.0</v>
@@ -1222,7 +1226,7 @@
         <v>13</v>
       </c>
       <c r="K29" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30">
@@ -1233,14 +1237,14 @@
         <v>34</v>
       </c>
       <c r="D30" t="n">
-        <v>2200000.0</v>
+        <v>150000.0</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>45716.0</v>
+        <v>45731.0</v>
       </c>
       <c r="H30" t="n">
         <v>1.0</v>
@@ -1252,7 +1256,7 @@
         <v>13</v>
       </c>
       <c r="K30" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31">
@@ -1263,14 +1267,14 @@
         <v>34</v>
       </c>
       <c r="D31" t="n">
-        <v>520000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>45747.0</v>
+        <v>45748.0</v>
       </c>
       <c r="H31" t="n">
         <v>1.0</v>
@@ -1282,25 +1286,27 @@
         <v>13</v>
       </c>
       <c r="K31" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="D32" t="n">
-        <v>320000.0</v>
+        <v>-200000.0</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32"/>
+        <v>67</v>
+      </c>
+      <c r="F32" t="s">
+        <v>66</v>
+      </c>
       <c r="G32" t="n">
-        <v>45747.0</v>
+        <v>45726.0</v>
       </c>
       <c r="H32" t="n">
         <v>1.0</v>
@@ -1312,25 +1318,27 @@
         <v>13</v>
       </c>
       <c r="K32" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="D33" t="n">
-        <v>2500000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="E33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33"/>
+        <v>69</v>
+      </c>
+      <c r="F33" t="s">
+        <v>66</v>
+      </c>
       <c r="G33" t="n">
-        <v>45747.0</v>
+        <v>45726.0</v>
       </c>
       <c r="H33" t="n">
         <v>1.0</v>
@@ -1342,25 +1350,27 @@
         <v>13</v>
       </c>
       <c r="K33" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="D34" t="n">
-        <v>480000.0</v>
+        <v>-1.0E7</v>
       </c>
       <c r="E34" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34"/>
+        <v>71</v>
+      </c>
+      <c r="F34" t="s">
+        <v>66</v>
+      </c>
       <c r="G34" t="n">
-        <v>45777.0</v>
+        <v>45792.0</v>
       </c>
       <c r="H34" t="n">
         <v>1.0</v>
@@ -1372,7 +1382,7 @@
         <v>13</v>
       </c>
       <c r="K34" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35">
@@ -1380,17 +1390,19 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="D35" t="n">
-        <v>280000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35"/>
+        <v>73</v>
+      </c>
+      <c r="F35" t="s">
+        <v>66</v>
+      </c>
       <c r="G35" t="n">
-        <v>45777.0</v>
+        <v>45792.0</v>
       </c>
       <c r="H35" t="n">
         <v>1.0</v>
@@ -1402,7 +1414,7 @@
         <v>13</v>
       </c>
       <c r="K35" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36">
@@ -1410,29 +1422,31 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>2300000.0</v>
+        <v>385000.0</v>
       </c>
       <c r="E36" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36"/>
+        <v>48</v>
+      </c>
+      <c r="F36" t="s">
+        <v>49</v>
+      </c>
       <c r="G36" t="n">
-        <v>45777.0</v>
+        <v>45839.0</v>
       </c>
       <c r="H36" t="n">
         <v>1.0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J36" t="s">
         <v>13</v>
       </c>
       <c r="K36" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37">
@@ -1440,29 +1454,31 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>150000.0</v>
+        <v>1540000.0</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
-      </c>
-      <c r="F37"/>
+        <v>48</v>
+      </c>
+      <c r="F37" t="s">
+        <v>49</v>
+      </c>
       <c r="G37" t="n">
-        <v>45731.0</v>
+        <v>45839.0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J37" t="s">
         <v>13</v>
       </c>
       <c r="K37" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38">
@@ -1470,125 +1486,127 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D38" t="n">
-        <v>200000.0</v>
+        <v>2310000.0</v>
       </c>
       <c r="E38" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38"/>
+        <v>48</v>
+      </c>
+      <c r="F38" t="s">
+        <v>49</v>
+      </c>
       <c r="G38" t="n">
-        <v>45748.0</v>
+        <v>45839.0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J38" t="s">
         <v>13</v>
       </c>
       <c r="K38" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D39" t="n">
-        <v>-200000.0</v>
+        <v>803000.0</v>
       </c>
       <c r="E39" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F39" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="G39" t="n">
-        <v>45726.0</v>
+        <v>45839.0</v>
       </c>
       <c r="H39" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J39" t="s">
         <v>13</v>
       </c>
       <c r="K39" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>200000.0</v>
+        <v>1639000.0</v>
       </c>
       <c r="E40" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F40" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="G40" t="n">
-        <v>45726.0</v>
+        <v>45839.0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J40" t="s">
         <v>13</v>
       </c>
       <c r="K40" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D41" t="n">
-        <v>-1.0E7</v>
+        <v>385000.0</v>
       </c>
       <c r="E41" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F41" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="G41" t="n">
-        <v>45792.0</v>
+        <v>45839.0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J41" t="s">
         <v>13</v>
       </c>
       <c r="K41" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
@@ -1596,31 +1614,31 @@
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>1.0E7</v>
+        <v>2926000.0</v>
       </c>
       <c r="E42" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="F42" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="G42" t="n">
-        <v>45792.0</v>
+        <v>45839.0</v>
       </c>
       <c r="H42" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J42" t="s">
         <v>13</v>
       </c>
       <c r="K42" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43">
@@ -1631,7 +1649,7 @@
         <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>605000.0</v>
+        <v>385000.0</v>
       </c>
       <c r="E43" t="s">
         <v>48</v>
@@ -1640,160 +1658,180 @@
         <v>49</v>
       </c>
       <c r="G43" t="n">
-        <v>45826.0</v>
+        <v>45839.0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I43" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="J43" t="s">
         <v>13</v>
       </c>
       <c r="K43" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>2.0E7</v>
+        <v>418000.0</v>
       </c>
       <c r="E44" t="s">
-        <v>79</v>
-      </c>
-      <c r="F44"/>
+        <v>48</v>
+      </c>
+      <c r="F44" t="s">
+        <v>49</v>
+      </c>
       <c r="G44" t="n">
-        <v>45826.0</v>
+        <v>45839.0</v>
       </c>
       <c r="H44" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="J44" t="s">
-        <v>80</v>
-      </c>
-      <c r="K44"/>
+        <v>13</v>
+      </c>
+      <c r="K44" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="45">
       <c r="B45" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
       </c>
       <c r="D45" t="n">
-        <v>2.0E7</v>
+        <v>1672000.0</v>
       </c>
       <c r="E45" t="s">
-        <v>79</v>
-      </c>
-      <c r="F45"/>
+        <v>48</v>
+      </c>
+      <c r="F45" t="s">
+        <v>49</v>
+      </c>
       <c r="G45" t="n">
-        <v>45826.0</v>
+        <v>45839.0</v>
       </c>
       <c r="H45" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="J45" t="s">
-        <v>80</v>
-      </c>
-      <c r="K45"/>
+        <v>13</v>
+      </c>
+      <c r="K45" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="46">
       <c r="B46" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
       </c>
       <c r="D46" t="n">
-        <v>11111.0</v>
+        <v>770000.0</v>
       </c>
       <c r="E46" t="s">
-        <v>81</v>
-      </c>
-      <c r="F46"/>
+        <v>48</v>
+      </c>
+      <c r="F46" t="s">
+        <v>49</v>
+      </c>
       <c r="G46" t="n">
-        <v>45826.0</v>
+        <v>45839.0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J46" t="s">
-        <v>80</v>
-      </c>
-      <c r="K46"/>
+        <v>13</v>
+      </c>
+      <c r="K46" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="47">
       <c r="B47" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>11111.0</v>
+        <v>418000.0</v>
       </c>
       <c r="E47" t="s">
-        <v>81</v>
-      </c>
-      <c r="F47"/>
+        <v>48</v>
+      </c>
+      <c r="F47" t="s">
+        <v>49</v>
+      </c>
       <c r="G47" t="n">
-        <v>45826.0</v>
+        <v>45839.0</v>
       </c>
       <c r="H47" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J47" t="s">
-        <v>80</v>
-      </c>
-      <c r="K47"/>
+        <v>13</v>
+      </c>
+      <c r="K47" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="48">
       <c r="B48" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
       </c>
       <c r="D48" t="n">
-        <v>1241.0</v>
+        <v>385000.0</v>
       </c>
       <c r="E48" t="s">
-        <v>82</v>
-      </c>
-      <c r="F48"/>
+        <v>48</v>
+      </c>
+      <c r="F48" t="s">
+        <v>49</v>
+      </c>
       <c r="G48" t="n">
-        <v>45826.0</v>
+        <v>45840.0</v>
       </c>
       <c r="H48" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J48" t="s">
-        <v>80</v>
-      </c>
-      <c r="K48"/>
+        <v>13</v>
+      </c>
+      <c r="K48" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="49">
       <c r="B49" t="s">
@@ -1803,137 +1841,93 @@
         <v>11</v>
       </c>
       <c r="D49" t="n">
-        <v>1.2412412E7</v>
+        <v>385000.0</v>
       </c>
       <c r="E49" t="s">
-        <v>83</v>
-      </c>
-      <c r="F49"/>
+        <v>48</v>
+      </c>
+      <c r="F49" t="s">
+        <v>49</v>
+      </c>
       <c r="G49" t="n">
-        <v>45826.0</v>
+        <v>45840.0</v>
       </c>
       <c r="H49" t="n">
         <v>1.0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J49" t="s">
-        <v>80</v>
-      </c>
-      <c r="K49"/>
+        <v>13</v>
+      </c>
+      <c r="K49" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="50">
       <c r="B50" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D50" t="n">
-        <v>4.21948912E8</v>
+        <v>418000.0</v>
       </c>
       <c r="E50" t="s">
-        <v>84</v>
-      </c>
-      <c r="F50"/>
+        <v>48</v>
+      </c>
+      <c r="F50" t="s">
+        <v>49</v>
+      </c>
       <c r="G50" t="n">
-        <v>45826.0</v>
+        <v>45840.0</v>
       </c>
       <c r="H50" t="n">
         <v>1.0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J50" t="s">
-        <v>80</v>
-      </c>
-      <c r="K50"/>
+        <v>13</v>
+      </c>
+      <c r="K50" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="51">
       <c r="B51" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
       </c>
       <c r="D51" t="n">
-        <v>1.429489124E9</v>
+        <v>385000.0</v>
       </c>
       <c r="E51" t="s">
-        <v>83</v>
-      </c>
-      <c r="F51"/>
+        <v>48</v>
+      </c>
+      <c r="F51" t="s">
+        <v>49</v>
+      </c>
       <c r="G51" t="n">
-        <v>45826.0</v>
+        <v>45840.0</v>
       </c>
       <c r="H51" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J51" t="s">
-        <v>80</v>
-      </c>
-      <c r="K51"/>
-    </row>
-    <row r="52">
-      <c r="B52" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1.1111111E7</v>
-      </c>
-      <c r="E52" t="s">
-        <v>85</v>
-      </c>
-      <c r="F52"/>
-      <c r="G52" t="n">
-        <v>45834.0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J52" t="s">
-        <v>80</v>
-      </c>
-      <c r="K52"/>
-    </row>
-    <row r="53">
-      <c r="B53" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1.8244121E7</v>
-      </c>
-      <c r="E53" t="s">
-        <v>86</v>
-      </c>
-      <c r="F53"/>
-      <c r="G53" t="n">
-        <v>45834.0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J53" t="s">
-        <v>80</v>
-      </c>
-      <c r="K53"/>
+        <v>13</v>
+      </c>
+      <c r="K51" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/web/uploadedFiles/Transaction.xlsx
+++ b/web/uploadedFiles/Transaction.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="75">
   <si>
     <t>Name Fund</t>
   </si>
@@ -237,54 +237,6 @@
   </si>
   <si>
     <t>Nhận tiền từ Vietcombank</t>
-  </si>
-  <si>
-    <t>Thu tiền mặt từ hóa đơn 9</t>
-  </si>
-  <si>
-    <t>Thu tiền mặt từ hóa đơn 10</t>
-  </si>
-  <si>
-    <t>Thu tiền mặt từ hóa đơn 11</t>
-  </si>
-  <si>
-    <t>Thu tiền mặt từ hóa đơn 12</t>
-  </si>
-  <si>
-    <t>Thu tiền mặt từ hóa đơn 13</t>
-  </si>
-  <si>
-    <t>Thu tiền mặt từ hóa đơn 14</t>
-  </si>
-  <si>
-    <t>Thu tiền mặt từ hóa đơn 15</t>
-  </si>
-  <si>
-    <t>Thu tiền mặt từ hóa đơn 16</t>
-  </si>
-  <si>
-    <t>Thu tiền mặt từ hóa đơn 17</t>
-  </si>
-  <si>
-    <t>Thu tiền mặt từ hóa đơn 18</t>
-  </si>
-  <si>
-    <t>Thu tiền mặt từ hóa đơn 19</t>
-  </si>
-  <si>
-    <t>Thu tiền mặt từ hóa đơn 20</t>
-  </si>
-  <si>
-    <t>Thu tiền mặt từ hóa đơn 21</t>
-  </si>
-  <si>
-    <t>Thu tiền mặt từ hóa đơn 1021</t>
-  </si>
-  <si>
-    <t>Thu tiền mặt từ hóa đơn 1022</t>
-  </si>
-  <si>
-    <t>Thu tiền mặt từ hóa đơn 1023</t>
   </si>
 </sst>
 </file>
@@ -329,7 +281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B1:L51"/>
+  <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1417,518 +1369,6 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36">
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" t="n">
-        <v>385000.0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" t="n">
-        <v>45839.0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J36" t="s">
-        <v>13</v>
-      </c>
-      <c r="K36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1540000.0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>48</v>
-      </c>
-      <c r="F37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" t="n">
-        <v>45839.0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2310000.0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" t="n">
-        <v>45839.0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J38" t="s">
-        <v>13</v>
-      </c>
-      <c r="K38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" t="n">
-        <v>803000.0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>48</v>
-      </c>
-      <c r="F39" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" t="n">
-        <v>45839.0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J39" t="s">
-        <v>13</v>
-      </c>
-      <c r="K39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1639000.0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" t="s">
-        <v>49</v>
-      </c>
-      <c r="G40" t="n">
-        <v>45839.0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J40" t="s">
-        <v>13</v>
-      </c>
-      <c r="K40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" t="n">
-        <v>385000.0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>48</v>
-      </c>
-      <c r="F41" t="s">
-        <v>49</v>
-      </c>
-      <c r="G41" t="n">
-        <v>45839.0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J41" t="s">
-        <v>13</v>
-      </c>
-      <c r="K41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" t="n">
-        <v>2926000.0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>48</v>
-      </c>
-      <c r="F42" t="s">
-        <v>49</v>
-      </c>
-      <c r="G42" t="n">
-        <v>45839.0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J42" t="s">
-        <v>13</v>
-      </c>
-      <c r="K42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" t="n">
-        <v>385000.0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" t="n">
-        <v>45839.0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J43" t="s">
-        <v>13</v>
-      </c>
-      <c r="K43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" t="n">
-        <v>418000.0</v>
-      </c>
-      <c r="E44" t="s">
-        <v>48</v>
-      </c>
-      <c r="F44" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" t="n">
-        <v>45839.0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J44" t="s">
-        <v>13</v>
-      </c>
-      <c r="K44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1672000.0</v>
-      </c>
-      <c r="E45" t="s">
-        <v>48</v>
-      </c>
-      <c r="F45" t="s">
-        <v>49</v>
-      </c>
-      <c r="G45" t="n">
-        <v>45839.0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J45" t="s">
-        <v>13</v>
-      </c>
-      <c r="K45" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" t="n">
-        <v>770000.0</v>
-      </c>
-      <c r="E46" t="s">
-        <v>48</v>
-      </c>
-      <c r="F46" t="s">
-        <v>49</v>
-      </c>
-      <c r="G46" t="n">
-        <v>45839.0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K46" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" t="n">
-        <v>418000.0</v>
-      </c>
-      <c r="E47" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" t="s">
-        <v>49</v>
-      </c>
-      <c r="G47" t="n">
-        <v>45839.0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J47" t="s">
-        <v>13</v>
-      </c>
-      <c r="K47" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" t="n">
-        <v>385000.0</v>
-      </c>
-      <c r="E48" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" t="s">
-        <v>49</v>
-      </c>
-      <c r="G48" t="n">
-        <v>45840.0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J48" t="s">
-        <v>13</v>
-      </c>
-      <c r="K48" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" t="n">
-        <v>385000.0</v>
-      </c>
-      <c r="E49" t="s">
-        <v>48</v>
-      </c>
-      <c r="F49" t="s">
-        <v>49</v>
-      </c>
-      <c r="G49" t="n">
-        <v>45840.0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J49" t="s">
-        <v>13</v>
-      </c>
-      <c r="K49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" t="n">
-        <v>418000.0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>48</v>
-      </c>
-      <c r="F50" t="s">
-        <v>49</v>
-      </c>
-      <c r="G50" t="n">
-        <v>45840.0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J50" t="s">
-        <v>13</v>
-      </c>
-      <c r="K50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" t="n">
-        <v>385000.0</v>
-      </c>
-      <c r="E51" t="s">
-        <v>48</v>
-      </c>
-      <c r="F51" t="s">
-        <v>49</v>
-      </c>
-      <c r="G51" t="n">
-        <v>45840.0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J51" t="s">
-        <v>13</v>
-      </c>
-      <c r="K51" t="s">
-        <v>90</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
